--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7BD47-B083-B64A-A966-DF315ECB4EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BB5A9-B596-6B44-BA20-9B280A2AEF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -42,15 +42,9 @@
     <t>NM_001276254.2</t>
   </si>
   <si>
-    <t>NP_001136309.1</t>
-  </si>
-  <si>
     <t>XP_027711101.1</t>
   </si>
   <si>
-    <t>Laurasiatheria</t>
-  </si>
-  <si>
     <t>Homo</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Euarchontoglires</t>
   </si>
   <si>
-    <t>Sus</t>
-  </si>
-  <si>
-    <t>Suidae</t>
-  </si>
-  <si>
     <t>Unclassified</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>XM_027855300</t>
   </si>
   <si>
-    <t>NM_001142837</t>
-  </si>
-  <si>
     <t>NM_001346937</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>Homo sapiens</t>
   </si>
   <si>
-    <t>Sus scrofa</t>
-  </si>
-  <si>
     <t>Vombatus ursinus</t>
   </si>
   <si>
@@ -195,12 +177,6 @@
     <t>Serpentes</t>
   </si>
   <si>
-    <t>REF_IFNLb_Mammal_rtg_laurasia</t>
-  </si>
-  <si>
-    <t>rtg</t>
-  </si>
-  <si>
     <t>REF_IFNLb_Mammal_Marsupial</t>
   </si>
   <si>
@@ -246,30 +222,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>IFNL-B-Anura</t>
-  </si>
-  <si>
-    <t>IFNL-B-Alligator</t>
-  </si>
-  <si>
-    <t>IFNL-B-Testudines</t>
-  </si>
-  <si>
-    <t>IFNL-B-Aves</t>
-  </si>
-  <si>
-    <t>IFNL-B-Mammal-1-rtg-1</t>
-  </si>
-  <si>
     <t>IFNL-B-Mammal-2</t>
   </si>
   <si>
-    <t>IFNL-A-Serpentes</t>
-  </si>
-  <si>
-    <t>IFNL-A-Mammal</t>
-  </si>
-  <si>
     <t>IFNL-B-Mammal-Marsupial</t>
   </si>
   <si>
@@ -400,13 +355,40 @@
   </si>
   <si>
     <t>duplicate_id</t>
+  </si>
+  <si>
+    <t>IFNL-Mammal-A</t>
+  </si>
+  <si>
+    <t>IFNL-Lepidosauria_1</t>
+  </si>
+  <si>
+    <t>IFNL-Crocodylia-1</t>
+  </si>
+  <si>
+    <t>IFNL-Crocodylia-2</t>
+  </si>
+  <si>
+    <t>IFNL-Anura</t>
+  </si>
+  <si>
+    <t>IFNL-Aves</t>
+  </si>
+  <si>
+    <t>IFNL-Mammal-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNL-Testudines-1 </t>
+  </si>
+  <si>
+    <t>IFNL-Testudines-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,13 +466,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1107,7 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1115,7 +1090,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -1158,7 +1132,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1195,9 +1168,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2077,548 +2047,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A3" sqref="A1:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="18" customWidth="1"/>
-    <col min="9" max="10" width="18.83203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="17" customWidth="1"/>
+    <col min="9" max="10" width="18.83203125" style="17" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="17" customWidth="1"/>
     <col min="13" max="13" width="21.83203125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="35" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="35"/>
+    <col min="17" max="17" width="15.83203125" style="33" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>26</v>
+      <c r="A2" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>19</v>
+      <c r="R2" s="32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="A3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="32">
+      <c r="H3" s="30">
         <v>1</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="31" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="N3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="A4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="27">
         <v>1</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="A6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
+      <c r="O7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
+      <c r="A8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="41"/>
+      <c r="P8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="16">
-        <v>2</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="16">
-        <v>2</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="9" t="s">
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="N9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R11">
-    <sortCondition ref="B2:B11"/>
-    <sortCondition ref="C2:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R10">
+    <sortCondition ref="B2:B10"/>
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2643,251 +2561,251 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>86</v>
+      <c r="A2" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>23</v>
+      <c r="A3" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>22</v>
+      <c r="A4" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="14"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="A5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="15">
         <v>2</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="16">
+      <c r="J5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="15">
         <v>2</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BB5A9-B596-6B44-BA20-9B280A2AEF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D059E-63D2-6E48-B8AF-22350988B61C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="5060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -147,18 +147,9 @@
     <t>REF_IFNLb_Anura_MASTER</t>
   </si>
   <si>
-    <t>REF_IFNLb_Alligator_MASTER</t>
-  </si>
-  <si>
-    <t>REF_IFNLb_Testudines_MASTER</t>
-  </si>
-  <si>
     <t>REF_IFNLb_Aves_MASTER</t>
   </si>
   <si>
-    <t>REF_IFNLa_Serpentes_MASTER</t>
-  </si>
-  <si>
     <t>Anura</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>IFNL-B-Mammal-Monotreme</t>
   </si>
   <si>
-    <t>REF_IFNLa_Mammal_MASTER</t>
-  </si>
-  <si>
     <t>XM_026688830</t>
   </si>
   <si>
@@ -351,9 +339,6 @@
     <t>Species_order</t>
   </si>
   <si>
-    <t>REF_IFNLb_Mammal_B2_2_MASTER</t>
-  </si>
-  <si>
     <t>duplicate_id</t>
   </si>
   <si>
@@ -382,6 +367,60 @@
   </si>
   <si>
     <t>IFNL-Testudines-2</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Testudines_1</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Testudines_2</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Mammal_b_MASTER</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Mammal_a_MASTER</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Lepidosauria_1</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Crocodylia_2</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Crocodylia_1</t>
+  </si>
+  <si>
+    <t>IFNL_Scyliorhinus</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Chondrichthyes</t>
+  </si>
+  <si>
+    <t>Chondrichthyes</t>
+  </si>
+  <si>
+    <t>Scyliorhinus</t>
+  </si>
+  <si>
+    <t>IFNL-Chondrichthyes</t>
+  </si>
+  <si>
+    <t>Scyliorhinus torazame</t>
+  </si>
+  <si>
+    <t>Carcharhiniformes</t>
+  </si>
+  <si>
+    <t>Vertebrate_class</t>
+  </si>
+  <si>
+    <t>Mammalia</t>
+  </si>
+  <si>
+    <t>Amphibia</t>
+  </si>
+  <si>
+    <t>Scyliorhinidae</t>
   </si>
 </sst>
 </file>
@@ -2047,24 +2086,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:R10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="18.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="17" customWidth="1"/>
+    <col min="8" max="9" width="18.83203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="12" width="20.1640625" style="17" customWidth="1"/>
     <col min="13" max="13" width="21.83203125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
@@ -2078,55 +2117,55 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2134,30 +2173,30 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="18"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2179,44 +2218,44 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="30">
-        <v>1</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
       <c r="M3" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
@@ -2226,127 +2265,129 @@
         <v>27</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="27">
+        <v>84</v>
+      </c>
+      <c r="G4" s="27">
         <v>1</v>
       </c>
+      <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="M4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="11">
+        <v>105</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="27">
         <v>2</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="N5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="10">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10">
         <v>1</v>
       </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
@@ -2356,41 +2397,41 @@
         <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="12">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
         <v>1</v>
       </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="M7" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -2400,33 +2441,33 @@
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="15">
+      <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="15">
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="15">
         <v>2</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>6</v>
@@ -2452,41 +2493,41 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="11">
+        <v>40</v>
+      </c>
+      <c r="G9" s="11">
         <v>1</v>
       </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -2496,42 +2537,88 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="11">
+        <v>40</v>
+      </c>
+      <c r="G10" s="11">
         <v>2</v>
       </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="11"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R10">
@@ -2564,82 +2651,82 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="4"/>
@@ -2651,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R2" s="4"/>
     </row>
@@ -2666,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -2675,19 +2762,19 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="4"/>
@@ -2716,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>31</v>
@@ -2726,16 +2813,16 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="4"/>
@@ -2761,25 +2848,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>32</v>
@@ -2796,13 +2883,13 @@
         <v>7</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D059E-63D2-6E48-B8AF-22350988B61C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D4207-8729-7B48-94F4-02B177B3552C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t>IFNL-Mammal-B</t>
   </si>
   <si>
-    <t xml:space="preserve">IFNL-Testudines-1 </t>
-  </si>
-  <si>
     <t>IFNL-Testudines-2</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Scyliorhinidae</t>
+  </si>
+  <si>
+    <t>IFNL-Testudines-1</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2089,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>78</v>
@@ -2179,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>45</v>
@@ -2195,7 +2195,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="18"/>
       <c r="L2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>6</v>
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>45</v>
@@ -2271,7 +2271,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>45</v>
@@ -2315,7 +2315,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>45</v>
@@ -2375,7 +2375,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="10"/>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>86</v>
@@ -2447,7 +2447,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>45</v>
@@ -2467,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>6</v>
@@ -2508,7 +2508,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2537,13 +2537,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>45</v>
@@ -2552,7 +2552,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2578,22 +2578,22 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -2603,19 +2603,19 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D4207-8729-7B48-94F4-02B177B3552C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9703CE6-7479-8C47-99F8-0D2447FC195B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2088,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9703CE6-7479-8C47-99F8-0D2447FC195B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4265E-3CBD-A545-80CC-3C05F6B939ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="5060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10180" yWindow="6300" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -135,9 +135,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Xenopus tropicalis</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>IFNL-Testudines-1</t>
+  </si>
+  <si>
+    <t>Placental1_Haplorhine1</t>
   </si>
 </sst>
 </file>
@@ -465,14 +465,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -506,6 +498,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -517,12 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF660066"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9C7FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1121,93 +1121,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -2086,546 +2052,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="17" customWidth="1"/>
-    <col min="8" max="9" width="18.83203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="12" width="20.1640625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="33" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="22.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="C2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="G2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>55</v>
-      </c>
+      <c r="H3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="E8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="H8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="I8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="J8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="32" t="s">
+      <c r="K8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="29" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="30">
-        <v>1</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="G9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="26" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="27">
-        <v>1</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="26" t="s">
+      <c r="B11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="27">
-        <v>2</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7" t="s">
+      <c r="H11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="15">
-        <v>2</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="11">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="J11" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
     <sortCondition ref="B2:B10"/>
-    <sortCondition ref="C2:C10"/>
+    <sortCondition ref="D2:D10"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2651,248 +2491,248 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="15">
+      <c r="J5" s="7"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4265E-3CBD-A545-80CC-3C05F6B939ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF042B-E9C9-D84A-BDDC-B4357C87B4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="6300" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
     <t>IFNL-Testudines-1</t>
   </si>
   <si>
-    <t>Placental1_Haplorhine1</t>
+    <t>Placental1</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF042B-E9C9-D84A-BDDC-B4357C87B4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B85D73-1189-1943-A578-11E89402F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="6300" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Placental1</t>
+  </si>
+  <si>
+    <t>Placental2_Haplorhine1</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2058,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:L11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2328,7 +2331,7 @@
         <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>29</v>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B85D73-1189-1943-A578-11E89402F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A86933-97D1-B54E-BAA4-22B209349826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="6300" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -141,12 +141,6 @@
     <t>Pelodiscus sinensis</t>
   </si>
   <si>
-    <t>REF_IFNLb_Anura_MASTER</t>
-  </si>
-  <si>
-    <t>REF_IFNLb_Aves_MASTER</t>
-  </si>
-  <si>
     <t>Anura</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>duplicate_id</t>
   </si>
   <si>
-    <t>IFNL-Mammal-A</t>
-  </si>
-  <si>
     <t>IFNL-Lepidosauria_1</t>
   </si>
   <si>
@@ -351,15 +342,6 @@
     <t>IFNL-Crocodylia-2</t>
   </si>
   <si>
-    <t>IFNL-Anura</t>
-  </si>
-  <si>
-    <t>IFNL-Aves</t>
-  </si>
-  <si>
-    <t>IFNL-Mammal-B</t>
-  </si>
-  <si>
     <t>IFNL-Testudines-2</t>
   </si>
   <si>
@@ -369,12 +351,6 @@
     <t>REF_IFNL_Testudines_2</t>
   </si>
   <si>
-    <t>REF_IFNL_Mammal_b_MASTER</t>
-  </si>
-  <si>
-    <t>REF_IFNL_Mammal_a_MASTER</t>
-  </si>
-  <si>
     <t>REF_IFNL_Lepidosauria_1</t>
   </si>
   <si>
@@ -396,9 +372,6 @@
     <t>Scyliorhinus</t>
   </si>
   <si>
-    <t>IFNL-Chondrichthyes</t>
-  </si>
-  <si>
     <t>Scyliorhinus torazame</t>
   </si>
   <si>
@@ -424,6 +397,42 @@
   </si>
   <si>
     <t>Placental2_Haplorhine1</t>
+  </si>
+  <si>
+    <t>IFNL-Mammalia-A</t>
+  </si>
+  <si>
+    <t>IFNL-Mammalia-B</t>
+  </si>
+  <si>
+    <t>gene_name</t>
+  </si>
+  <si>
+    <t>gene_clade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Aves_1</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Anura_1</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Mammalia_A</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Mammalia_B_MASTER</t>
+  </si>
+  <si>
+    <t>IFNL-Aves-1</t>
+  </si>
+  <si>
+    <t>IFNL-Anura-1</t>
+  </si>
+  <si>
+    <t>IFNL-Chondrichthyes-1</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1177,6 +1186,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -2055,418 +2073,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="18"/>
+    <col min="2" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="K7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="G8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="F9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="L9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>39</v>
+        <v>118</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="22" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="G11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="23"/>
+      <c r="I11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
-    <sortCondition ref="B2:B10"/>
-    <sortCondition ref="D2:D10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
+    <sortCondition ref="B2:B11"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2494,82 +2544,82 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
@@ -2581,13 +2631,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="R2" s="2"/>
     </row>
@@ -2596,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -2605,19 +2655,19 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
@@ -2646,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2656,16 +2706,16 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
@@ -2691,25 +2741,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>32</v>
@@ -2726,13 +2776,13 @@
         <v>7</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A86933-97D1-B54E-BAA4-22B209349826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC633D23-E810-4641-AC13-837042483257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="6300" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17680" yWindow="5960" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -396,9 +396,6 @@
     <t>Placental1</t>
   </si>
   <si>
-    <t>Placental2_Haplorhine1</t>
-  </si>
-  <si>
     <t>IFNL-Mammalia-A</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>IFNL-Chondrichthyes-1</t>
+  </si>
+  <si>
+    <t>Placental2_Haplorhine-1.1</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2100,10 +2100,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>53</v>
@@ -2141,7 +2141,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>116</v>
@@ -2178,7 +2178,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>63</v>
@@ -2215,7 +2215,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
@@ -2363,10 +2363,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>119</v>
@@ -2375,7 +2375,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>115</v>
@@ -2404,19 +2404,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>115</v>

--- a/tabular/refseq-core/ifnl-refseq-side-data.xlsx
+++ b/tabular/refseq-core/ifnl-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC633D23-E810-4641-AC13-837042483257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940E404-2EA1-6D47-AF65-0E429FD8F09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17680" yWindow="5960" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>NM_001346937.1</t>
   </si>
@@ -339,24 +339,12 @@
     <t>IFNL-Crocodylia-1</t>
   </si>
   <si>
-    <t>IFNL-Crocodylia-2</t>
-  </si>
-  <si>
-    <t>IFNL-Testudines-2</t>
-  </si>
-  <si>
     <t>REF_IFNL_Testudines_1</t>
   </si>
   <si>
-    <t>REF_IFNL_Testudines_2</t>
-  </si>
-  <si>
     <t>REF_IFNL_Lepidosauria_1</t>
   </si>
   <si>
-    <t>REF_IFNL_Crocodylia_2</t>
-  </si>
-  <si>
     <t>REF_IFNL_Crocodylia_1</t>
   </si>
   <si>
@@ -433,6 +421,12 @@
   </si>
   <si>
     <t>Placental2_Haplorhine-1.1</t>
+  </si>
+  <si>
+    <t>IFNL-Archelosauria-1</t>
+  </si>
+  <si>
+    <t>REF_IFNL_Archelosauria_1_Crocodylia</t>
   </si>
 </sst>
 </file>
@@ -2076,16 +2070,17 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:M11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -2100,10 +2095,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>53</v>
@@ -2115,7 +2110,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>75</v>
@@ -2141,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
@@ -2153,10 +2148,10 @@
         <v>33</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>83</v>
@@ -2178,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -2190,7 +2185,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>63</v>
@@ -2212,37 +2207,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="K4" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -2264,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>63</v>
@@ -2289,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C6" s="27">
         <v>1</v>
@@ -2301,7 +2296,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>63</v>
@@ -2338,7 +2333,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>63</v>
@@ -2363,22 +2358,22 @@
         <v>21</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>6</v>
@@ -2404,22 +2399,22 @@
         <v>20</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>6</v>
@@ -2445,7 +2440,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="27">
         <v>1</v>
@@ -2457,7 +2452,7 @@
         <v>73</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>63</v>
@@ -2482,7 +2477,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C11" s="27">
         <v>2</v>
@@ -2494,7 +2489,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>63</v>
